--- a/04_Output/k600/7.xlsx
+++ b/04_Output/k600/7.xlsx
@@ -355,80 +355,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date.01_Raw_data.GD.6.GB_09082023.csv</t>
+          <t>excel</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>excel</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k600</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>45177</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>date.01_Raw_data.GD.5.GB_09132023.csv</t>
-        </is>
-      </c>
-      <c r="C2" s="2">
-        <v>45182</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>date.01_Raw_data.GD.7.GB_11012023.csv</t>
+        </is>
+      </c>
+      <c r="B2" s="2">
+        <v>45231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>45177</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>date.01_Raw_data.GD.5.GB_09132023.csv</t>
-        </is>
-      </c>
-      <c r="C3" s="2">
-        <v>45182</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45177</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>date.01_Raw_data.GD.5.GB_09132023.csv</t>
-        </is>
-      </c>
-      <c r="C4" s="2">
-        <v>45182</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>date.01_Raw_data.GD.7.GB_11012023.csv</t>
+        </is>
+      </c>
+      <c r="B3" s="2">
+        <v>45231</v>
       </c>
     </row>
   </sheetData>
